--- a/datFile/quartett.xlsx
+++ b/datFile/quartett.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16640" windowHeight="14720" tabRatio="990"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="calculations" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Tabelle3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="calculations" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,311 +24,316 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
-  <si>
-    <t xml:space="preserve">oder m€ per MW?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oder sqkm per MW?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power [MW]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO2 [kg per MWh]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investment Cost [m€]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Footprint [sqkm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jobs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commissioned</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flamanville Unit 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5 billion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To be commissioned in 2018. First Gen III+ reactor in the world.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koeberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5 billion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commissioned 1984. Only nuclear power plant in Africa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zaporizhia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commissioned 1985. Largest nuclear power plant in Europe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 billion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commissioned 1989.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belchatow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 billion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commissioned 1982. Largest coal power plant and largest CO2 emitter in Europe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bayswater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 billion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commissioned 1986.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Majuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commissioned 1996. One of the largest coal power plants in Africa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jänschwalde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irsching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bouchain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surgut-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sultan Abdul Aziz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">London Array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muppandal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anholt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mt. Crosin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ourzazate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andasol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home-PV oder tower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alholmens Kraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atikokan oder manure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maasvlakte-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Three Gorges Dam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Itaipu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil/Paraguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoover Dam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grimsel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lardarello (Geothermal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rance (Tidal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agucadoura (Wave)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shoaiba (Oil)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nuclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200 m2/tU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 kg U = 0.478 Gwh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m2/Gwh electricity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">km2/Twh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mw/empl</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="101">
+  <si>
+    <t>oder m€ per MW?</t>
+  </si>
+  <si>
+    <t>oder sqkm per MW?</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Power [MW]</t>
+  </si>
+  <si>
+    <t>CO2 [kg per MWh]</t>
+  </si>
+  <si>
+    <t>Investment Cost [m€]</t>
+  </si>
+  <si>
+    <t>Footprint [sqkm]</t>
+  </si>
+  <si>
+    <t>Jobs</t>
+  </si>
+  <si>
+    <t>Commissioned</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Flamanville Unit 3</t>
+  </si>
+  <si>
+    <t>8.5 billion</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>To be commissioned in 2018. First Gen III+ reactor in the world.</t>
+  </si>
+  <si>
+    <t>Koeberg</t>
+  </si>
+  <si>
+    <t>1.5 billion</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Commissioned 1984. Only nuclear power plant in Africa.</t>
+  </si>
+  <si>
+    <t>Zaporizhia</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Commissioned 1985. Largest nuclear power plant in Europe.</t>
+  </si>
+  <si>
+    <t>Tomari</t>
+  </si>
+  <si>
+    <t>5 billion</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Commissioned 1989.</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Belchatow</t>
+  </si>
+  <si>
+    <t>3 billion</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Commissioned 1982. Largest coal power plant and largest CO2 emitter in Europe.</t>
+  </si>
+  <si>
+    <t>Bayswater</t>
+  </si>
+  <si>
+    <t>1 billion</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Commissioned 1986.</t>
+  </si>
+  <si>
+    <t>Majuba</t>
+  </si>
+  <si>
+    <t>Commissioned 1996. One of the largest coal power plants in Africa.</t>
+  </si>
+  <si>
+    <t>Jänschwalde</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Irsching</t>
+  </si>
+  <si>
+    <t>Bouchain</t>
+  </si>
+  <si>
+    <t>Surgut-2</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Sultan Abdul Aziz</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>London Array</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Muppandal</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Anholt</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Mt. Crosin</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Topaz</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Ourzazate</t>
+  </si>
+  <si>
+    <t>Marocco</t>
+  </si>
+  <si>
+    <t>Andasol</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Home-PV oder tower</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Drax</t>
+  </si>
+  <si>
+    <t>Alholmens Kraft</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Atikokan oder manure</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Maasvlakte-3</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Three Gorges Dam</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Itaipu</t>
+  </si>
+  <si>
+    <t>Brazil/Paraguay</t>
+  </si>
+  <si>
+    <t>Hoover Dam</t>
+  </si>
+  <si>
+    <t>Grimsel</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Lardarello (Geothermal)</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Rance (Tidal)</t>
+  </si>
+  <si>
+    <t>Agucadoura (Wave)</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Shoaiba (Oil)</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>200 m2/tU</t>
+  </si>
+  <si>
+    <t>1 kg U = 0.478 Gwh</t>
+  </si>
+  <si>
+    <t>m2/Gwh electricity</t>
+  </si>
+  <si>
+    <t>km2/Twh</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>mw</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>mw/empl</t>
+  </si>
+  <si>
+    <t>http://www.greenreport.it/wp-content/uploads/2014/12/nucleare-Zaporizhia.jpg</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/8/7386/9346701223_5d83e78bf0_b.jpg</t>
+  </si>
+  <si>
+    <t>http://bilder.augsburger-allgemeine.de/img/incoming/crop23033986/4424784294-ctopTeaser-w1200/Weltgroesste-Gasturbine-im-Kraftwerk-Irsching.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -335,22 +342,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -415,7 +407,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -423,213 +415,143 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -688,49 +610,370 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:K37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C3" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="43.919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="10.6032388663968"/>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="6" width="8.83203125" style="2"/>
+    <col min="7" max="7" width="8.83203125" style="3"/>
+    <col min="8" max="10" width="8.83203125" style="2"/>
+    <col min="11" max="11" width="8.83203125" style="4"/>
+    <col min="12" max="1025" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="G1" s="5"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" s="1" customFormat="1">
       <c r="G2" s="5"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" s="1" customFormat="1">
       <c r="G3" s="5"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" s="1" customFormat="1">
       <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
@@ -739,7 +982,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -771,29 +1014,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" ht="126">
       <c r="B6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="12">
         <v>1650</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="12">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="13" t="n">
+      <c r="G6" s="13">
         <v>5000</v>
       </c>
-      <c r="H6" s="12" t="n">
+      <c r="H6" s="12">
         <v>400</v>
       </c>
-      <c r="I6" s="12" t="n">
+      <c r="I6" s="12">
         <v>2017</v>
       </c>
       <c r="J6" s="12" t="s">
@@ -803,29 +1046,29 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" ht="112">
       <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="12">
         <v>1940</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="12">
         <v>0</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="13" t="n">
+      <c r="G7" s="13">
         <v>6000</v>
       </c>
-      <c r="H7" s="12" t="n">
+      <c r="H7" s="12">
         <v>1200</v>
       </c>
-      <c r="I7" s="12" t="n">
+      <c r="I7" s="12">
         <v>1984</v>
       </c>
       <c r="J7" s="12" t="s">
@@ -835,25 +1078,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" ht="112">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
       <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="12">
         <v>6000</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="12">
         <v>0</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="13" t="n">
+      <c r="G8" s="13">
         <v>18500</v>
       </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="12" t="n">
+      <c r="I8" s="12">
         <v>1985</v>
       </c>
       <c r="J8" s="12" t="s">
@@ -863,27 +1109,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" ht="42">
       <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="12">
         <v>2070</v>
       </c>
-      <c r="E9" s="12" t="n">
+      <c r="E9" s="12">
         <v>0</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="13" t="n">
+      <c r="G9" s="13">
         <v>6500</v>
       </c>
       <c r="H9" s="12"/>
-      <c r="I9" s="12" t="n">
+      <c r="I9" s="12">
         <v>1989</v>
       </c>
       <c r="J9" s="12" t="s">
@@ -893,27 +1139,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" ht="154">
       <c r="B10" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="16" t="n">
+      <c r="D10" s="16">
         <v>5420</v>
       </c>
-      <c r="E10" s="16" t="n">
+      <c r="E10" s="16">
         <v>1100</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="17"/>
-      <c r="H10" s="16" t="n">
+      <c r="H10" s="16">
         <v>700</v>
       </c>
-      <c r="I10" s="16" t="n">
+      <c r="I10" s="16">
         <v>1982</v>
       </c>
       <c r="J10" s="16" t="s">
@@ -923,27 +1169,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" ht="42">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
       <c r="B11" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="16" t="n">
+      <c r="D11" s="16">
         <v>2640</v>
       </c>
-      <c r="E11" s="16" t="n">
+      <c r="E11" s="16">
         <v>1130</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="17"/>
-      <c r="H11" s="16" t="n">
+      <c r="H11" s="16">
         <v>350</v>
       </c>
-      <c r="I11" s="16" t="n">
+      <c r="I11" s="16">
         <v>1986</v>
       </c>
       <c r="J11" s="16" t="s">
@@ -953,23 +1202,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" ht="140">
       <c r="B12" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="16" t="n">
+      <c r="D12" s="16">
         <v>4110</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="16" t="n">
+      <c r="H12" s="16">
         <v>600</v>
       </c>
-      <c r="I12" s="16" t="n">
+      <c r="I12" s="16">
         <v>1996</v>
       </c>
       <c r="J12" s="16" t="s">
@@ -979,7 +1228,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11">
       <c r="B13" s="15" t="s">
         <v>28</v>
       </c>
@@ -997,7 +1246,10 @@
       </c>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
       <c r="B14" s="19" t="s">
         <v>41</v>
       </c>
@@ -1015,7 +1267,7 @@
       </c>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11">
       <c r="B15" s="19" t="s">
         <v>41</v>
       </c>
@@ -1033,7 +1285,7 @@
       </c>
       <c r="K15" s="22"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11">
       <c r="B16" s="19" t="s">
         <v>41</v>
       </c>
@@ -1051,7 +1303,7 @@
       </c>
       <c r="K16" s="22"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:11">
       <c r="B17" s="19" t="s">
         <v>41</v>
       </c>
@@ -1069,7 +1321,7 @@
       </c>
       <c r="K17" s="22"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:11">
       <c r="B18" s="23" t="s">
         <v>48</v>
       </c>
@@ -1087,7 +1339,7 @@
       </c>
       <c r="K18" s="26"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:11">
       <c r="B19" s="23" t="s">
         <v>48</v>
       </c>
@@ -1105,7 +1357,7 @@
       </c>
       <c r="K19" s="26"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:11">
       <c r="B20" s="23" t="s">
         <v>48</v>
       </c>
@@ -1123,7 +1375,7 @@
       </c>
       <c r="K20" s="26"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:11">
       <c r="B21" s="23" t="s">
         <v>48</v>
       </c>
@@ -1141,7 +1393,7 @@
       </c>
       <c r="K21" s="26"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:11">
       <c r="B22" s="27" t="s">
         <v>57</v>
       </c>
@@ -1159,7 +1411,7 @@
       </c>
       <c r="K22" s="30"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:11">
       <c r="B23" s="27" t="s">
         <v>57</v>
       </c>
@@ -1177,7 +1429,7 @@
       </c>
       <c r="K23" s="30"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:11">
       <c r="B24" s="27" t="s">
         <v>57</v>
       </c>
@@ -1195,7 +1447,7 @@
       </c>
       <c r="K24" s="30"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:11">
       <c r="B25" s="27" t="s">
         <v>57</v>
       </c>
@@ -1213,7 +1465,7 @@
       </c>
       <c r="K25" s="30"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:11">
       <c r="B26" s="31" t="s">
         <v>66</v>
       </c>
@@ -1231,7 +1483,7 @@
       </c>
       <c r="K26" s="34"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:11">
       <c r="B27" s="31" t="s">
         <v>66</v>
       </c>
@@ -1249,7 +1501,7 @@
       </c>
       <c r="K27" s="34"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:11">
       <c r="B28" s="31" t="s">
         <v>66</v>
       </c>
@@ -1267,7 +1519,7 @@
       </c>
       <c r="K28" s="34"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:11">
       <c r="B29" s="31" t="s">
         <v>66</v>
       </c>
@@ -1285,7 +1537,7 @@
       </c>
       <c r="K29" s="34"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:11">
       <c r="B30" s="35" t="s">
         <v>74</v>
       </c>
@@ -1303,7 +1555,7 @@
       </c>
       <c r="K30" s="38"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:11">
       <c r="B31" s="35" t="s">
         <v>74</v>
       </c>
@@ -1321,7 +1573,7 @@
       </c>
       <c r="K31" s="38"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:11">
       <c r="B32" s="35" t="s">
         <v>74</v>
       </c>
@@ -1339,7 +1591,7 @@
       </c>
       <c r="K32" s="38"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:11">
       <c r="B33" s="35" t="s">
         <v>74</v>
       </c>
@@ -1357,7 +1609,7 @@
       </c>
       <c r="K33" s="38"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:11">
       <c r="B34" s="39" t="s">
         <v>81</v>
       </c>
@@ -1375,7 +1627,7 @@
       </c>
       <c r="K34" s="42"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:11">
       <c r="B35" s="39" t="s">
         <v>81</v>
       </c>
@@ -1393,7 +1645,7 @@
       </c>
       <c r="K35" s="42"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:11">
       <c r="B36" s="39" t="s">
         <v>81</v>
       </c>
@@ -1411,7 +1663,7 @@
       </c>
       <c r="K36" s="42"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:11">
       <c r="B37" s="39" t="s">
         <v>81</v>
       </c>
@@ -1430,156 +1682,142 @@
       <c r="K37" s="42"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6032388663968"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="n">
-        <f aca="false">200000/0.478</f>
-        <v>418410.041841004</v>
-      </c>
-      <c r="E6" s="0" t="s">
+    <row r="6" spans="2:6">
+      <c r="D6">
+        <f>200000/0.478</f>
+        <v>418410.04184100422</v>
+      </c>
+      <c r="E6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="0" t="n">
-        <f aca="false">D6*1000/(1000*1000)</f>
-        <v>418.410041841004</v>
-      </c>
-      <c r="E8" s="0" t="s">
+    <row r="8" spans="2:6">
+      <c r="D8">
+        <f>D6*1000/(1000*1000)</f>
+        <v>418.41004184100422</v>
+      </c>
+      <c r="E8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="n">
+    <row r="12" spans="2:6">
+      <c r="C12">
         <v>2933</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>320</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <f aca="false">C12/D12</f>
-        <v>9.165625</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="n">
+      <c r="E12">
+        <f>C12/D12</f>
+        <v>9.1656250000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="C13">
         <v>1368</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>206</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <f aca="false">C13/D13</f>
-        <v>6.64077669902913</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="n">
+      <c r="E13">
+        <f>C13/D13</f>
+        <v>6.6407766990291259</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="C14">
         <v>2052</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>230</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <f aca="false">C14/D14</f>
-        <v>8.92173913043478</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="n">
+      <c r="E14">
+        <f>C14/D14</f>
+        <v>8.9217391304347817</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="C15">
         <v>1152</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>180</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <f aca="false">C15/D15</f>
+      <c r="E15">
+        <f>C15/D15</f>
         <v>6.4</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6032388663968"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>